--- a/backend/pdf_processing/extracted/tables/fileoutpart8.xlsx
+++ b/backend/pdf_processing/extracted/tables/fileoutpart8.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="27">
   <si>
     <t>AIRPORT _x000D_</t>
   </si>
@@ -43,70 +43,58 @@
     <t>DEP _x000D_</t>
   </si>
   <si>
-    <t>LFMQ _x000D_</t>
+    <t>LFPN _x000D_</t>
   </si>
   <si>
     <t>-_x000D_</t>
   </si>
   <si>
+    <t>127.48 _x000D_</t>
+  </si>
+  <si>
+    <t>120.75 _x000D_</t>
+  </si>
+  <si>
+    <t>121.555 _x000D_</t>
+  </si>
+  <si>
+    <t>122.13 _x000D_</t>
+  </si>
+  <si>
+    <t>538 _x000D_</t>
+  </si>
+  <si>
+    <t>07L / 25R _x000D_</t>
+  </si>
+  <si>
+    <t>1100 m _x000D_</t>
+  </si>
+  <si>
+    <t>DEST _x000D_</t>
+  </si>
+  <si>
+    <t>LFEH _x000D_</t>
+  </si>
+  <si>
+    <t>1350Z _x000D_</t>
+  </si>
+  <si>
     <t>N/A _x000D_</t>
   </si>
   <si>
-    <t>119.005 _x000D_</t>
-  </si>
-  <si>
-    <t>1391 _x000D_</t>
-  </si>
-  <si>
-    <t>12 _x000D_</t>
-  </si>
-  <si>
-    <t>1485 m _x000D_</t>
-  </si>
-  <si>
-    <t>DEST _x000D_</t>
-  </si>
-  <si>
-    <t>LFMT _x000D_</t>
-  </si>
-  <si>
-    <t>0837Z _x000D_</t>
-  </si>
-  <si>
-    <t>124.13 _x000D_</t>
-  </si>
-  <si>
-    <t>118.775 _x000D_</t>
-  </si>
-  <si>
-    <t>121.955 _x000D_</t>
-  </si>
-  <si>
-    <t>17 _x000D_</t>
-  </si>
-  <si>
-    <t>12L _x000D_</t>
-  </si>
-  <si>
-    <t>2600 m _x000D_</t>
+    <t>630 _x000D_</t>
+  </si>
+  <si>
+    <t>06 _x000D_</t>
+  </si>
+  <si>
+    <t>1015 m _x000D_</t>
   </si>
   <si>
     <t>ALTN 1 _x000D_</t>
   </si>
   <si>
-    <t>LFNG _x000D_</t>
-  </si>
-  <si>
-    <t>0849Z _x000D_</t>
-  </si>
-  <si>
-    <t>5 _x000D_</t>
-  </si>
-  <si>
-    <t>14 / 32 _x000D_</t>
-  </si>
-  <si>
-    <t>900 m _x000D_</t>
+    <t>1434Z _x000D_</t>
   </si>
 </sst>
 </file>
@@ -467,16 +455,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="7.85546875" customWidth="1"/>
-    <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="3" max="3" width="8.140625" customWidth="1"/>
-    <col min="4" max="4" width="8.5703125" customWidth="1"/>
+    <col min="1" max="1" width="7.7109375" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" customWidth="1"/>
+    <col min="3" max="3" width="7.7109375" customWidth="1"/>
+    <col min="4" max="4" width="8.140625" customWidth="1"/>
     <col min="5" max="5" width="9.85546875" customWidth="1"/>
-    <col min="6" max="6" width="6.7109375" customWidth="1"/>
-    <col min="7" max="7" width="8.85546875" customWidth="1"/>
-    <col min="8" max="8" width="7.28515625" customWidth="1"/>
-    <col min="9" max="9" width="8.5703125" customWidth="1"/>
-    <col min="10" max="10" width="8.28515625" customWidth="1"/>
+    <col min="6" max="6" width="9" customWidth="1"/>
+    <col min="7" max="7" width="7.85546875" customWidth="1"/>
+    <col min="8" max="8" width="6.42578125" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" customWidth="1"/>
+    <col min="10" max="10" width="8" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="16" customHeight="1">
@@ -523,39 +511,39 @@
         <v>12</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="20" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>21</v>
@@ -575,31 +563,31 @@
         <v>25</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>27</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
